--- a/Test Cases/TC_Module_Auth.xlsx
+++ b/Test Cases/TC_Module_Auth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\hockyVII\kiem_thu_phan_mem\bai_tap\MANUAL-TESTING-GROUP-3\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C129ACA2-BE4D-4E33-98DC-02C3D4867D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EC71B2-6C2F-43BB-9644-EBC88D7BFC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{46978AC3-CCC9-4A36-8CB2-417100DA6657}"/>
   </bookViews>
@@ -853,10 +853,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1199,7 +1195,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1434,7 +1430,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="75.849999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2224,15 +2220,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079A6319058EAE54B9E025EFE76928252" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="564d648951a34bc003b728a405897712">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d187907-0e3d-44a8-a07d-3e1450da7c0b" xmlns:ns4="a2c9c2a0-b97e-4cea-8a17-3711ad3092f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac216feb37efacf01a9d3dad3c59a9bc" ns3:_="" ns4:_="">
     <xsd:import namespace="6d187907-0e3d-44a8-a07d-3e1450da7c0b"/>
@@ -2453,6 +2440,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A526CD4-92F8-4F35-ADD8-F96039C7336D}">
   <ds:schemaRefs>
@@ -2471,14 +2467,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2E98AF2-C41D-41F2-98C4-1AB3FC8B512E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD44350E-FDBE-48F3-9346-79AC344727E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2495,4 +2483,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2E98AF2-C41D-41F2-98C4-1AB3FC8B512E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>